--- a/models/template/login.xlsx
+++ b/models/template/login.xlsx
@@ -40,9 +40,8 @@
 0 for Student
 1 for Class Advisor
 2 for HOD
-3 for Class Advisor
-4 for Officials
-5 for Admin</t>
+3 for Officials
+4 for Admin</t>
       </text>
     </comment>
   </commentList>
